--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_AnhTuanNB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE-4G" sheetId="38" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="96">
   <si>
     <t>STT</t>
   </si>
@@ -258,18 +258,6 @@
     <t>Full phụ kiện</t>
   </si>
   <si>
-    <t>WSP21060008S0115</t>
-  </si>
-  <si>
-    <t>WSP21060008S0294</t>
-  </si>
-  <si>
-    <t>WSP21060008S0120</t>
-  </si>
-  <si>
-    <t>WSP21060004S0038</t>
-  </si>
-  <si>
     <t>Còn BH</t>
   </si>
   <si>
@@ -292,6 +280,51 @@
   </si>
   <si>
     <t>MCU,NCFW</t>
+  </si>
+  <si>
+    <t>Xử lý lại anten GSM, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>WSP21060008S0294/ 00320009DF</t>
+  </si>
+  <si>
+    <t>Khay sim bị kênh</t>
+  </si>
+  <si>
+    <t>Xử lý lại khay sim</t>
+  </si>
+  <si>
+    <t>WSP21060008S0115/ 0032000A34</t>
+  </si>
+  <si>
+    <t>Thiết bị thường xuyên nhảy KM, và mất kết nối với module GPS</t>
+  </si>
+  <si>
+    <t>Đổi mới thiết bị</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>WSP21060004S0038/ 0032000467</t>
+  </si>
+  <si>
+    <t>Full phụ kiện + sim</t>
+  </si>
+  <si>
+    <t>Sim lỗi</t>
+  </si>
+  <si>
+    <t>WSP21060008S0120/ 00320009BA</t>
   </si>
 </sst>
 </file>
@@ -715,6 +748,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -761,9 +797,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1072,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1105,43 +1138,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1186,58 +1219,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="73"/>
-      <c r="L4" s="79" t="s">
+      <c r="K4" s="74"/>
+      <c r="L4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="79" t="s">
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1268,17 +1301,17 @@
       <c r="K5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="86"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1297,21 +1330,21 @@
       </c>
       <c r="F6" s="68"/>
       <c r="G6" s="68" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="54" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J6" s="54"/>
       <c r="K6" s="39" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M6" s="39" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>64</v>
@@ -1323,12 +1356,12 @@
         <v>66</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1352,26 +1385,38 @@
       </c>
       <c r="F7" s="68"/>
       <c r="G7" s="68" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="54" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J7" s="39"/>
       <c r="K7" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
+      <c r="N7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="82"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1393,21 +1438,21 @@
       </c>
       <c r="F8" s="68"/>
       <c r="G8" s="68" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="54" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J8" s="39"/>
       <c r="K8" s="39" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L8" s="39" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M8" s="39" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>64</v>
@@ -1419,12 +1464,12 @@
         <v>66</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="82"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1453,7 +1498,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="82"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1482,7 +1527,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="82"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1511,7 +1556,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1540,7 +1585,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1571,7 +1616,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1600,7 +1645,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="82"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1629,7 +1674,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1658,7 +1703,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2917,8 +2962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2928,13 +2973,13 @@
     <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="19" customWidth="1"/>
     <col min="7" max="7" width="17" style="19" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
     <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
     <col min="10" max="10" width="33.42578125" style="19" customWidth="1"/>
     <col min="11" max="11" width="30.7109375" style="25" customWidth="1"/>
-    <col min="12" max="12" width="56" style="25" customWidth="1"/>
+    <col min="12" max="12" width="63.7109375" style="25" customWidth="1"/>
     <col min="13" max="13" width="58" style="19" customWidth="1"/>
     <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
     <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
@@ -2950,43 +2995,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3031,58 +3076,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="73"/>
-      <c r="L4" s="79" t="s">
+      <c r="K4" s="74"/>
+      <c r="L4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="79" t="s">
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3113,17 +3158,17 @@
       <c r="K5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="86"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3137,7 +3182,7 @@
       <c r="D6" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="89" t="s">
+      <c r="E6" s="73" t="s">
         <v>71</v>
       </c>
       <c r="F6" s="68" t="s">
@@ -3146,22 +3191,34 @@
       <c r="G6" s="68"/>
       <c r="H6" s="37"/>
       <c r="I6" s="54" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="L6" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3181,26 +3238,42 @@
         <v>70</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="F7" s="68" t="s">
         <v>72</v>
       </c>
       <c r="G7" s="68"/>
       <c r="H7" s="37"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="39"/>
+      <c r="I7" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>75</v>
+      </c>
       <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="L7" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>90</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="82"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3218,26 +3291,42 @@
         <v>70</v>
       </c>
       <c r="E8" s="69" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F8" s="68" t="s">
         <v>72</v>
       </c>
       <c r="G8" s="68"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="39"/>
+      <c r="I8" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>75</v>
+      </c>
       <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="L8" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>87</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="82"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3255,14 +3344,16 @@
         <v>70</v>
       </c>
       <c r="E9" s="69" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="F9" s="68" t="s">
         <v>72</v>
       </c>
       <c r="G9" s="68"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="48"/>
+      <c r="I9" s="54" t="s">
+        <v>74</v>
+      </c>
       <c r="J9" s="39"/>
       <c r="K9" s="39"/>
       <c r="L9" s="39"/>
@@ -3274,7 +3365,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="82"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3292,15 +3383,21 @@
         <v>70</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F10" s="68" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="G10" s="68"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="39"/>
+      <c r="H10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>75</v>
+      </c>
       <c r="K10" s="58"/>
       <c r="L10" s="58"/>
       <c r="M10" s="39"/>
@@ -3311,7 +3408,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="82"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3340,7 +3437,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3369,7 +3466,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3400,7 +3497,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3429,7 +3526,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="82"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3458,7 +3555,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3487,7 +3584,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3606,7 +3703,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -3638,7 +3735,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -3851,7 +3948,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -3947,7 +4044,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -4107,7 +4204,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -4139,7 +4236,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4225,7 +4322,7 @@
       </c>
       <c r="V40" s="9">
         <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40" s="13"/>
     </row>
@@ -4779,43 +4876,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -4860,58 +4957,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="73"/>
-      <c r="L4" s="79" t="s">
+      <c r="K4" s="74"/>
+      <c r="L4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="79" t="s">
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="71" t="s">
         <v>1</v>
       </c>
@@ -4942,17 +5039,17 @@
       <c r="K5" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="86"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4984,7 +5081,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="72"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5015,7 +5112,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="72"/>
-      <c r="U7" s="82"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5044,7 +5141,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="72"/>
-      <c r="U8" s="82"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5073,7 +5170,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="72"/>
-      <c r="U9" s="82"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5102,7 +5199,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="72"/>
-      <c r="U10" s="82"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5131,7 +5228,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="72"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5160,7 +5257,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="72"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5191,7 +5288,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="72"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5220,7 +5317,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="72"/>
-      <c r="U14" s="82"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5249,7 +5346,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5278,7 +5375,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6570,43 +6667,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -6651,58 +6748,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -6727,23 +6824,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6769,7 +6866,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6800,7 +6897,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="82"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6829,7 +6926,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="82"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6858,7 +6955,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="82"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6887,7 +6984,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="82"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6916,7 +7013,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6945,7 +7042,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6976,7 +7073,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7005,7 +7102,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="82"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7034,7 +7131,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7063,7 +7160,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_AnhTuanNB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE-4G" sheetId="38" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="98">
   <si>
     <t>STT</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>WSP21060008S0120/ 00320009BA</t>
+  </si>
+  <si>
+    <t>Anh Thông giữ test</t>
+  </si>
+  <si>
+    <t>Thiết bị chỉ nhận 4G vinaphone, GSM kém</t>
   </si>
 </sst>
 </file>
@@ -1105,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2962,8 +2968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3244,7 +3250,9 @@
         <v>72</v>
       </c>
       <c r="G7" s="68"/>
-      <c r="H7" s="37"/>
+      <c r="H7" s="37" t="s">
+        <v>96</v>
+      </c>
       <c r="I7" s="54" t="s">
         <v>74</v>
       </c>
@@ -3265,12 +3273,8 @@
       <c r="P7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R7" s="37" t="s">
-        <v>21</v>
-      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="65"/>
       <c r="U7" s="83"/>
@@ -3350,17 +3354,27 @@
         <v>72</v>
       </c>
       <c r="G9" s="68"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="37" t="s">
+        <v>96</v>
+      </c>
       <c r="I9" s="54" t="s">
         <v>74</v>
       </c>
       <c r="J9" s="39"/>
       <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="L9" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>90</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
+      <c r="O9" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
@@ -3399,11 +3413,19 @@
         <v>75</v>
       </c>
       <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
+      <c r="L10" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
@@ -3735,7 +3757,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -3948,7 +3970,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -4236,7 +4258,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4322,7 +4344,7 @@
       </c>
       <c r="V40" s="9">
         <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W40" s="13"/>
     </row>
@@ -4844,7 +4866,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_AnhTuanNB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE-4G" sheetId="38" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="97">
   <si>
     <t>STT</t>
   </si>
@@ -325,9 +325,6 @@
   </si>
   <si>
     <t>WSP21060008S0120/ 00320009BA</t>
-  </si>
-  <si>
-    <t>Anh Thông giữ test</t>
   </si>
   <si>
     <t>Thiết bị chỉ nhận 4G vinaphone, GSM kém</t>
@@ -757,6 +754,30 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -775,35 +796,11 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1111,7 +1108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
@@ -1144,43 +1141,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1225,58 +1222,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="80" t="s">
+      <c r="K4" s="82"/>
+      <c r="L4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="80" t="s">
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1307,17 +1304,17 @@
       <c r="K5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="87"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1367,7 +1364,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1422,7 +1419,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1475,7 +1472,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1504,7 +1501,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1533,7 +1530,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1562,7 +1559,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1591,7 +1588,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1622,7 +1619,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1651,7 +1648,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1680,7 +1677,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1709,7 +1706,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2940,13 +2937,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2958,6 +2948,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2968,8 +2965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3001,43 +2998,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3082,58 +3079,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="80" t="s">
+      <c r="K4" s="82"/>
+      <c r="L4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="80" t="s">
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3164,17 +3161,17 @@
       <c r="K5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="87"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3224,7 +3221,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3250,9 +3247,7 @@
         <v>72</v>
       </c>
       <c r="G7" s="68"/>
-      <c r="H7" s="37" t="s">
-        <v>96</v>
-      </c>
+      <c r="H7" s="37"/>
       <c r="I7" s="54" t="s">
         <v>74</v>
       </c>
@@ -3277,7 +3272,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3330,7 +3325,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3354,16 +3349,14 @@
         <v>72</v>
       </c>
       <c r="G9" s="68"/>
-      <c r="H9" s="37" t="s">
-        <v>96</v>
-      </c>
+      <c r="H9" s="37"/>
       <c r="I9" s="54" t="s">
         <v>74</v>
       </c>
       <c r="J9" s="39"/>
       <c r="K9" s="39"/>
       <c r="L9" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M9" s="39" t="s">
         <v>90</v>
@@ -3379,7 +3372,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3430,7 +3423,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3459,7 +3452,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3488,7 +3481,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3519,7 +3512,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3548,7 +3541,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3577,7 +3570,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3606,7 +3599,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4837,6 +4830,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4848,13 +4848,6 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4898,43 +4891,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -4979,58 +4972,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="80" t="s">
+      <c r="K4" s="82"/>
+      <c r="L4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="80" t="s">
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="71" t="s">
         <v>1</v>
       </c>
@@ -5061,17 +5054,17 @@
       <c r="K5" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="87"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5103,7 +5096,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="72"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5134,7 +5127,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="72"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5163,7 +5156,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="72"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5192,7 +5185,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="72"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5221,7 +5214,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="72"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5250,7 +5243,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="72"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5279,7 +5272,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="72"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5310,7 +5303,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="72"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5339,7 +5332,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="72"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5368,7 +5361,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5397,7 +5390,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6628,13 +6621,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6646,6 +6632,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6689,43 +6682,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -6770,58 +6763,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -6846,23 +6839,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6888,7 +6881,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6919,7 +6912,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6948,7 +6941,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6977,7 +6970,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7006,7 +6999,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7035,7 +7028,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7064,7 +7057,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7095,7 +7088,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7124,7 +7117,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7153,7 +7146,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7182,7 +7175,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8413,6 +8406,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8424,13 +8424,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_AnhTuanNB.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="100">
   <si>
     <t>STT</t>
   </si>
@@ -328,6 +328,15 @@
   </si>
   <si>
     <t>Thiết bị chỉ nhận 4G vinaphone, GSM kém</t>
+  </si>
+  <si>
+    <t>IMEI mới: WP22050219S00202 / 0032004A6A</t>
+  </si>
+  <si>
+    <t>IMEI mới: WP22050219S00196 / 00320047E9</t>
+  </si>
+  <si>
+    <t>Đã  test lại hoạt động bình thường</t>
   </si>
 </sst>
 </file>
@@ -1108,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView showZeros="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1324,7 +1333,9 @@
       <c r="B6" s="63">
         <v>44957</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="63">
+        <v>44978</v>
+      </c>
       <c r="D6" s="68" t="s">
         <v>56</v>
       </c>
@@ -1379,7 +1390,9 @@
       <c r="B7" s="63">
         <v>44957</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="63">
+        <v>44978</v>
+      </c>
       <c r="D7" s="68" t="s">
         <v>56</v>
       </c>
@@ -1432,7 +1445,9 @@
       <c r="B8" s="63">
         <v>44957</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="63">
+        <v>44978</v>
+      </c>
       <c r="D8" s="68" t="s">
         <v>56</v>
       </c>
@@ -2965,8 +2980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3181,7 +3196,9 @@
       <c r="B6" s="63">
         <v>44957</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="63">
+        <v>44978</v>
+      </c>
       <c r="D6" s="68" t="s">
         <v>70</v>
       </c>
@@ -3236,7 +3253,9 @@
       <c r="B7" s="63">
         <v>44957</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="63">
+        <v>44978</v>
+      </c>
       <c r="D7" s="68" t="s">
         <v>70</v>
       </c>
@@ -3247,7 +3266,9 @@
         <v>72</v>
       </c>
       <c r="G7" s="68"/>
-      <c r="H7" s="37"/>
+      <c r="H7" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="I7" s="54" t="s">
         <v>74</v>
       </c>
@@ -3285,7 +3306,9 @@
       <c r="B8" s="63">
         <v>44957</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="63">
+        <v>44978</v>
+      </c>
       <c r="D8" s="68" t="s">
         <v>70</v>
       </c>
@@ -3338,7 +3361,9 @@
       <c r="B9" s="63">
         <v>44957</v>
       </c>
-      <c r="C9" s="63"/>
+      <c r="C9" s="63">
+        <v>44978</v>
+      </c>
       <c r="D9" s="68" t="s">
         <v>70</v>
       </c>
@@ -3349,7 +3374,9 @@
         <v>72</v>
       </c>
       <c r="G9" s="68"/>
-      <c r="H9" s="37"/>
+      <c r="H9" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="I9" s="54" t="s">
         <v>74</v>
       </c>
@@ -3385,7 +3412,9 @@
       <c r="B10" s="63">
         <v>44957</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="63">
+        <v>44978</v>
+      </c>
       <c r="D10" s="68" t="s">
         <v>70</v>
       </c>
@@ -4858,8 +4887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5074,7 +5103,9 @@
       <c r="B6" s="63">
         <v>44957</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="63">
+        <v>44978</v>
+      </c>
       <c r="D6" s="68" t="s">
         <v>68</v>
       </c>
@@ -5088,7 +5119,9 @@
       <c r="J6" s="39"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>99</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39"/>
       <c r="P6" s="1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_AnhTuanNB.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="100">
   <si>
     <t>STT</t>
   </si>
@@ -763,6 +763,30 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -778,38 +802,14 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1150,43 +1150,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1231,58 +1231,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="82"/>
-      <c r="L4" s="79" t="s">
+      <c r="K4" s="74"/>
+      <c r="L4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="79" t="s">
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1313,17 +1313,17 @@
       <c r="K5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1375,7 +1375,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1432,7 +1432,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1487,7 +1487,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1516,7 +1516,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1545,7 +1545,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1574,7 +1574,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1603,7 +1603,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1634,7 +1634,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1663,7 +1663,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1692,7 +1692,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1721,7 +1721,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2952,6 +2952,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2963,13 +2970,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2980,8 +2980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3013,43 +3013,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3094,58 +3094,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="82"/>
-      <c r="L4" s="79" t="s">
+      <c r="K4" s="74"/>
+      <c r="L4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="79" t="s">
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3176,17 +3176,17 @@
       <c r="K5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3293,7 +3293,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3399,7 +3399,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3448,11 +3448,15 @@
       <c r="P10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
+      <c r="Q10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>25</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3481,7 +3485,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3510,7 +3514,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3541,7 +3545,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3570,7 +3574,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3599,7 +3603,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3628,7 +3632,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3747,7 +3751,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -4248,7 +4252,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -4280,7 +4284,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4859,13 +4863,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4877,6 +4874,13 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4887,8 +4891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4920,43 +4924,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -5001,58 +5005,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="82"/>
-      <c r="L4" s="79" t="s">
+      <c r="K4" s="74"/>
+      <c r="L4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="79" t="s">
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="71" t="s">
         <v>1</v>
       </c>
@@ -5083,17 +5087,17 @@
       <c r="K5" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5129,7 +5133,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="72"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5160,7 +5164,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="72"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5189,7 +5193,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="72"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5218,7 +5222,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="72"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5247,7 +5251,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="72"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5276,7 +5280,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="72"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5305,7 +5309,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="72"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5336,7 +5340,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="72"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5365,7 +5369,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="72"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5394,7 +5398,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5423,7 +5427,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6654,6 +6658,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6665,13 +6676,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6715,43 +6719,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -6796,58 +6800,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -6872,23 +6876,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6914,7 +6918,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6945,7 +6949,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6974,7 +6978,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7003,7 +7007,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7032,7 +7036,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7061,7 +7065,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7090,7 +7094,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7121,7 +7125,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7150,7 +7154,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7179,7 +7183,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7208,7 +7212,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8439,13 +8443,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8457,6 +8454,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
